--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288158.3552224</v>
+        <v>1284145.745208407</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103746</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>151.9440011798704</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>134.4415385849327</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,13 +873,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>19.58945082857569</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902027</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.96122915360965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>122.2856167813297</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>314.7279496501364</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>51.04951869506105</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>98.12640288586319</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>127.9332612712588</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>19.91555826189058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>101.9268484343554</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>40.96105405076426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>111.5512144998715</v>
+        <v>160.1597912951064</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2137,13 +2137,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>72.8097849205479</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>107.387005480723</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>28.75188085812005</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>134.3542165280282</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>12.96996784159862</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.8476477102232</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>105.6507867899569</v>
+        <v>166.3208822291519</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.27552175740409</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>50.49265242092962</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>231.5999924959147</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>180.1003471321698</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3061.836364065689</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3061.836364065689</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2730.773476722119</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2378.004821452004</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2004.539063190924</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064583</v>
@@ -4409,16 +4409,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4433,16 +4433,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4454,7 +4454,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.0144869816389</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C4" t="n">
-        <v>370.0144869816389</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="X4" t="n">
-        <v>590.8070661251691</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.0144869816389</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,13 +4591,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
@@ -4606,13 +4606,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.75081059268</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>730.5823923378725</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>730.5823923378725</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>580.4657529255368</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>580.4657529255368</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>433.5758054276264</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.01298720966</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1361.01298720966</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1133.023436311642</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>912.2308571681123</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2304.808759915837</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C8" t="n">
-        <v>1935.846242975425</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>167.0196863409697</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>160.0741855917663</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2304.808759915837</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,16 +4886,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.6936570343842</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>313.5427886871656</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>165.6296951047725</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1005.683207932402</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1005.683207932402</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>777.6936570343842</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>777.6936570343842</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5035,34 +5035,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,10 +5077,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>658.7722159733504</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650331</v>
+        <v>510.8591223909573</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>363.9691748930469</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>196.7730756079268</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5241,10 +5241,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,34 +5509,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5980,58 +5980,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="29">
@@ -6445,49 +6445,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098242</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783594</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640064</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6697,52 +6697,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.53722908186</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153953</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741617</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4623.787448650996</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4517.069482196494</v>
+        <v>1809.460189369951</v>
       </c>
       <c r="V37" t="n">
-        <v>4262.384993990608</v>
+        <v>1554.775701164064</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953647</v>
+        <v>1265.358531127103</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055629</v>
+        <v>1037.368980229086</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912099</v>
+        <v>816.5764010855557</v>
       </c>
     </row>
     <row r="38">
@@ -7156,31 +7156,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7189,13 +7189,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098242</v>
+        <v>634.927936255316</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819173</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695815</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2395.960404367201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2213.105570022105</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1993.504105045046</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1704.428878389244</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.428878389244</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.011708352283</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3047.734188001555</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2878.798005073648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4222.26644111619</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3967.581952910303</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3678.164782873342</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3450.175231975325</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3229.382652831795</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>38.36786441186848</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>45.44677382459305</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>245.5619442858267</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>114.1584408891656</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>73.62417772602127</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>35.40333084624564</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>72.44497470121425</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>32.89260457059962</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>212.7396875474385</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.7370056418716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>180.5336875992872</v>
+        <v>119.8635921600922</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>114.1584408891651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.88259428919204</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>54.58448189332941</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>106.0841272570744</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940417.4689437536</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940417.4689437533</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>940417.4689437536</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>940417.4689437536</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>940417.4689437536</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940417.4689437536</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="F2" t="n">
-        <v>484287.9598140035</v>
-      </c>
       <c r="G2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="H2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
+        <v>484287.9598140038</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="K2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="L2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818175</v>
@@ -26530,40 +26530,40 @@
         <v>292507.222438995</v>
       </c>
       <c r="E6" t="n">
-        <v>44756.10403591092</v>
+        <v>44408.72478155403</v>
       </c>
       <c r="F6" t="n">
-        <v>370168.5658432659</v>
+        <v>369821.186588909</v>
       </c>
       <c r="G6" t="n">
-        <v>370168.565843266</v>
+        <v>369821.1865889091</v>
       </c>
       <c r="H6" t="n">
-        <v>370168.5658432661</v>
+        <v>369821.1865889091</v>
       </c>
       <c r="I6" t="n">
-        <v>370168.565843266</v>
+        <v>369821.186588909</v>
       </c>
       <c r="J6" t="n">
-        <v>152637.3634459886</v>
+        <v>152289.9841916316</v>
       </c>
       <c r="K6" t="n">
-        <v>370168.565843266</v>
+        <v>369821.1865889092</v>
       </c>
       <c r="L6" t="n">
-        <v>370168.5658432662</v>
+        <v>369821.186588909</v>
       </c>
       <c r="M6" t="n">
-        <v>285113.5379077542</v>
+        <v>284766.1586533972</v>
       </c>
       <c r="N6" t="n">
-        <v>370168.5658432661</v>
+        <v>369821.186588909</v>
       </c>
       <c r="O6" t="n">
-        <v>370168.565843266</v>
+        <v>369821.1865889091</v>
       </c>
       <c r="P6" t="n">
-        <v>370168.5658432663</v>
+        <v>369821.186588909</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26983,10 +26983,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024431</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>51.97396895974978</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>14.17393443327964</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>266.6223873770372</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>303.9530049144603</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.276709502444</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>43.74019147769854</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>39.95509197054656</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>359.8722069583924</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>47.29464513706806</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>124.2043820525692</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31843,25 +31843,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>601.0567753070487</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>469.7150632237154</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1284145.745208407</v>
+        <v>1285906.275511192</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283202</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>8.296101769924759</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>151.9440011798704</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>19.58945082857569</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>13.02719212039676</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.78083674902027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>227.7172236952964</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>71.67037196991711</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>192.1675620474806</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>78.78083674902116</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>51.04951869506105</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F10" t="n">
-        <v>98.12640288586319</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>101.9268484343554</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>16.77337404802782</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>141.5888089825039</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>160.1597912951064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>72.8097849205479</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107.387005480723</v>
+        <v>107.3870054807218</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008677961</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>12.96996784159862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.29306638367343</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>166.3208822291519</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>23.1099832571722</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>231.5999924959147</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>23.1099832571722</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>942.9472709150275</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>942.9472709150275</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3061.836364065689</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3061.836364065689</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2730.773476722119</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2378.004821452004</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2004.539063190924</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4433,16 +4433,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199866</v>
@@ -4454,7 +4454,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962485</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034578</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435997</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005523</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>2892.365997936255</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>2892.365997936255</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W4" t="n">
-        <v>2892.365997936255</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936255</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792725</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450753</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512222</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533118</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>552.807938939214</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>552.807938939214</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>167.0196863409697</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>160.0741855917663</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4941,25 +4941,25 @@
         <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>463.6594280995014</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>313.5427886871656</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>165.6296951047725</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,58 +5029,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>808.8888553856862</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>658.7722159733504</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>510.8591223909573</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>363.9691748930469</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>196.7730756079268</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,34 +5296,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458822</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>334.5579996265751</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5606,10 +5606,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>481.447947124485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614378</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
@@ -6472,43 +6472,43 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="30">
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6703,7 +6703,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>634.927936255316</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1809.460189369951</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1554.775701164064</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1265.358531127103</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>1037.368980229086</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>816.5764010855557</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.927936255316</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1963.123159128057</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1708.43867092217</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1419.02150088521</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-4.032039142182524e-14</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>38.36786441186848</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>45.44677382459305</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>148.750764244241</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>4.845153664065236</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>73.62417772602127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.44497470121425</v>
+        <v>72.44497470121549</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>138.4949402405086</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>54.58448189332941</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437536</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437535</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940417.4689437534</v>
+        <v>940417.4689437532</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437532</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>940417.4689437535</v>
+        <v>940417.4689437534</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
@@ -26337,22 +26337,22 @@
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140035</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972777</v>
+        <v>217531.2023972771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.25168002746068e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818164</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26524,46 +26524,46 @@
         <v>-1036237.523288598</v>
       </c>
       <c r="C6" t="n">
-        <v>292507.222438995</v>
+        <v>292507.2224389951</v>
       </c>
       <c r="D6" t="n">
-        <v>292507.222438995</v>
+        <v>292507.2224389951</v>
       </c>
       <c r="E6" t="n">
-        <v>44408.72478155403</v>
+        <v>44721.36611047502</v>
       </c>
       <c r="F6" t="n">
-        <v>369821.186588909</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="G6" t="n">
-        <v>369821.1865889091</v>
+        <v>370133.8279178304</v>
       </c>
       <c r="H6" t="n">
-        <v>369821.1865889091</v>
+        <v>370133.8279178304</v>
       </c>
       <c r="I6" t="n">
-        <v>369821.186588909</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="J6" t="n">
-        <v>152289.9841916316</v>
+        <v>152602.6255205532</v>
       </c>
       <c r="K6" t="n">
-        <v>369821.1865889092</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="L6" t="n">
-        <v>369821.186588909</v>
+        <v>370133.8279178298</v>
       </c>
       <c r="M6" t="n">
-        <v>284766.1586533972</v>
+        <v>285078.7999823183</v>
       </c>
       <c r="N6" t="n">
-        <v>369821.186588909</v>
+        <v>370133.8279178303</v>
       </c>
       <c r="O6" t="n">
-        <v>369821.1865889091</v>
+        <v>370133.82791783</v>
       </c>
       <c r="P6" t="n">
-        <v>369821.186588909</v>
+        <v>370133.8279178302</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26761,10 +26761,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="L3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,22 +26983,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>373.634268302337</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>51.97396895974978</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>266.6223873770372</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034312</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>303.9530049144603</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>158.5207149607571</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.35543628911111</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>27.38138722868857</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>303.9530049144594</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>359.8722069583924</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F10" t="n">
-        <v>47.29464513706806</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912046</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906011</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>466.5925882502527</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691863</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
